--- a/demo/repo-db-v.2.2.xlsx
+++ b/demo/repo-db-v.2.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="299">
   <si>
     <t xml:space="preserve">Complete</t>
   </si>
@@ -483,6 +483,9 @@
     <t xml:space="preserve">APC, IDRC</t>
   </si>
   <si>
+    <t xml:space="preserve">Afrikaans</t>
+  </si>
+  <si>
     <t xml:space="preserve">This publication is one of the seminal resources on CNs, and a must read.  There are 8 thematic reports, followed by 43 country reports.  The thematic reports cover topics including technology options, legal frameworks, telecommunications regulation, financial sustainability, sustainable access, power, femininst infrastructure, and local content and decentralization. More: GISWatch 2018 focuses on local access models, specifically, community networks as self-organised, self-managed or locally developed solutions for local access, based on the conviction that one of the keys to affordable access is giving local people the skills and tools to solve their own connectivity challenges. It comprises 43 country reports and eight thematic reports.</t>
   </si>
   <si>
@@ -513,6 +516,9 @@
     <t xml:space="preserve">NYC Mesh</t>
   </si>
   <si>
+    <t xml:space="preserve">Turkish</t>
+  </si>
+  <si>
     <t xml:space="preserve">The NYC Mesh docs webpage is a fantastic resource for the CN community.  It has sections on hardware, DIY &amp; Troubleshooting, installations, networking, organization, security and privacy, local services, and software. The Install Training Presentation is particularly useful (https://docs.google.com/presentation/d/1fpa24kkC5-hAwxAmz8kdTFDX0s1hxDKZ0aea4BzbN1g/edit?usp=sharing)</t>
   </si>
   <si>
@@ -534,6 +540,9 @@
     <t xml:space="preserve">A4AI</t>
   </si>
   <si>
+    <t xml:space="preserve">Georgian</t>
+  </si>
+  <si>
     <t xml:space="preserve">This website and associated brief (https://docs.google.com/document/d/1qydsmTY4hln3pP4dWJbCSRFna8SfDYAtGfacKYwhVk8/edit) describes the meaningful connectivity targetm which is a tool to raise the bar for internet access and set more ambitious policy goals for digital development. It sets minimum thresholds across the four dimensions of internet access that matter most to users. </t>
   </si>
   <si>
@@ -573,6 +582,9 @@
     <t xml:space="preserve">Carlos Baca, Luca Belli, Erick Huerta and Karla Velasco</t>
   </si>
   <si>
+    <t xml:space="preserve">Georgian, Turkish, French</t>
+  </si>
+  <si>
     <t xml:space="preserve">Latin America, Global</t>
   </si>
   <si>
@@ -597,6 +609,9 @@
     <t xml:space="preserve">Belli, Luca</t>
   </si>
   <si>
+    <t xml:space="preserve">German</t>
+  </si>
+  <si>
     <t xml:space="preserve">This article briefly explores how groups of unconnected and scarcely connected individuals can regain control over their digital futures, building their own community networks and enjoying what the author defines as “network self-determination" He argues that network self-determination leads to several positive externalities for the affected communities while preserving the Internet as a distributed, interoperable and generative network of networks.</t>
   </si>
   <si>
@@ -615,6 +630,9 @@
     <t xml:space="preserve">Nicola Bidwell and Michael Jensen</t>
   </si>
   <si>
+    <t xml:space="preserve">Arabic</t>
+  </si>
+  <si>
     <t xml:space="preserve">This is a must-read for the CN movement. To document the benefits of, and challenges facing, small-scale, community-based connectivity projects, APC researchers visited 12 rural community networks in the global South in 2018 and studied a number of others through desk research and interviews. The primary goal of the research is to provide information that can be used for evidence-based policy making that will contribute to creating a more enabling environment for small community-based local access networks. In addition, the research aimed to identify opportunities for these networks to be more effective and, hopefully, to encourage more organisations to support the development of these networks in future.</t>
   </si>
   <si>
@@ -633,6 +651,9 @@
     <t xml:space="preserve">Commonwealth of Learning, and DEF</t>
   </si>
   <si>
+    <t xml:space="preserve">Greek, Arabic</t>
+  </si>
+  <si>
     <t xml:space="preserve">This two-part training course divided into two parts. The first part covers some basic concepts related to planning the setup of wireless networks such as conducting a location survey and selecting the required hardware. The second part of the handbook covers details of actual installation and maintenance of wireless networks.</t>
   </si>
   <si>
@@ -657,202 +678,85 @@
     <t xml:space="preserve">Maybe</t>
   </si>
   <si>
+    <t xml:space="preserve">Awesome Self Hosted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A directory of free software solutions and web applications which can be hosted locally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://selfhosted.libhunt.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Networks and Sustainability: A Survey of Perceptions, Practices, and Proposed Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isiXhosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community network (CN) initiatives have been around for roughly two decades, evangelizing a distinctly different paradigm for building, maintaining, and sharing network infrastructure but also defending the basic human right to Internet access. Over this time they have evolved into a mosaic of systems that vary widely with respect to their network technologies, their offered services, their organizational structure, and the way they position themselves in the overall telecommunications’ ecosystem. Common to all these highly differentiated initiatives is the sustainability challenge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/document/8320771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zotero.org/groups/2403673/communitynetworks/collections/XL8LCQYW/items/HNWRGEB9/collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Subjects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suggested Route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN Training Organizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community-Based Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People from the communities who want to know what CNs are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN Training Individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizational and Business Models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireless Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC-BY-NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizations that want to develop their own training programs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Media Policy Seminar Series: Steve Song</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCMLP Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=ijjYmOYZzWk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Media Policy Seminar Series: Nic Bidwell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=E12ZOzJwze8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manypossibilities.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Song, Steve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">communitynetworks.group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://communitynetworks.group/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy and Regulation for Community Networks Wiki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://policy.communitynetworks.group/start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awesome Self Hosted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A directory of free software solutions and web applications which can be hosted locally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://selfhosted.libhunt.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awesome Self Hosted - GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/awesome-selfhosted/awesome-selfhosted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wireless Mesh Networks as Community Hubs: Analysis of Small-Scale Wireless Mesh Networks and Community-Centered Technology Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.jstor.org/stable/10.5325/jinfopoli.8.2018.0232#metadata_info_tab_contents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Infrastructures: The Commons Model for Local Participation, Governance and Sustainability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navarro, Leandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zotero.org/groups/2403673/communitynetworks/collections/XL8LCQYW/items/WJ7BBQ6S/collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Networks and Sustainability: A Survey of Perceptions, Practices, and Proposed Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community network (CN) initiatives have been around for roughly two decades, evangelizing a distinctly different paradigm for building, maintaining, and sharing network infrastructure but also defending the basic human right to Internet access. Over this time they have evolved into a mosaic of systems that vary widely with respect to their network technologies, their offered services, their organizational structure, and the way they position themselves in the overall telecommunications’ ecosystem. Common to all these highly differentiated initiatives is the sustainability challenge.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ieeexplore.ieee.org/document/8320771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zotero.org/groups/2403673/communitynetworks/collections/XL8LCQYW/items/HNWRGEB9/collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Networks: Regulatory issues and gaps – Experiences from India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srivastava, Ritu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India, Global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making Community Networks economically sustainable, the guifi.net experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baig, Roger, Lluís Dalmau, Ramon Roca, Leandro Navarro, Felix Freitag, and Arjuna Sathiaseelan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dl.acm.org/doi/10.1145/2940157.2940163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GenderIT.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Women's Rights Programme of the Association for Progressive Communications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.genderit.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to start a community network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nycmesh.net/blog/how/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Person-Centered Guide to Demystifying Technology: 2B: The Infrastructure of the Internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://iopn.library.illinois.edu/pressbooks/demystifyingtechnology/chapter/mthe-infrastructure-of-the-internet/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munin Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://muninetworks.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative Communications Networks Throughout History,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dl.acm.org/doi/10.1145/2998581.2998584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.weforum.org/agenda/2018/11/understanding-the-gender-gap-in-the-global-south/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1002/isd2.12029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Towards Scalable Community Networks (Community Cellular)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.genderit.org/feminist-talk/our-routes-womens-node-illustrated-journey-women-community-networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rhizomatica.org/keeping-it-analog-a-framework-for-opting-out-of-connectivity/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Subjects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suggested Route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN Training Organizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community-Based Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">People from the communities who want to know what CNs are</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN Training Individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organizational and Business Models </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wireless Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-BY-NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organizations that want to develop their own training programs</t>
   </si>
   <si>
     <t xml:space="preserve">Interested in developing a CN</t>
@@ -1133,7 +1037,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1174,16 +1078,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1263,15 +1159,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="E38" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.14"/>
@@ -1281,7 +1177,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="72.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="72.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="71.3"/>
@@ -1295,7 +1191,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="60.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1261,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -1433,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1501,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1569,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1632,7 +1528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1696,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1758,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1822,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1886,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1952,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2013,7 +1909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2074,7 +1970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -2124,7 +2020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2143,18 +2039,20 @@
       <c r="F14" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="H14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>31</v>
@@ -2166,22 +2064,22 @@
         <v>33</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>40</v>
@@ -2190,7 +2088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -2201,39 +2099,41 @@
         <v>76</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>2021</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="H15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6" t="s">
         <v>140</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -2245,7 +2145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -2256,23 +2156,25 @@
         <v>76</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2021</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>31</v>
@@ -2291,7 +2193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2302,26 +2204,28 @@
         <v>41</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="H17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>31</v>
@@ -2329,24 +2233,24 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2357,36 +2261,38 @@
         <v>41</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="H18" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>47</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -2394,7 +2300,7 @@
         <v>52</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>142</v>
@@ -2406,7 +2312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2417,29 +2323,31 @@
         <v>143</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="H19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>47</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -2447,13 +2355,13 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -2464,26 +2372,28 @@
         <v>41</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="H20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>31</v>
@@ -2503,7 +2413,7 @@
         <v>52</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="T20" s="5" t="s">
         <v>39</v>
@@ -2512,7 +2422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -2523,26 +2433,28 @@
         <v>86</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="H21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>31</v>
@@ -2552,17 +2464,17 @@
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="T21" s="5" t="s">
         <v>39</v>
@@ -2574,760 +2486,78 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F28" s="5" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="5" t="s">
+    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D22" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="8" t="s">
+      <c r="C23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J23" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="6" t="s">
+      <c r="K23" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F35" s="5" t="n">
-        <v>2018</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="K35" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="9"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="9"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="9"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="9"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="9"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="9"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="9"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="9"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="9"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="9"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="9"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="9"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="9"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="9"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="9"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="9"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="9"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="9"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="9"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F21 F27:F69" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F23" type="list">
       <formula1>Validations!$G$2:$G$36</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C2:C21 C27:C69" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C2:C23" type="list">
       <formula1>Validations!$A$2:$A$33</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3371,29 +2601,9 @@
     <hyperlink ref="K20" r:id="rId36" display="https://www.zotero.org/groups/2403673/communitynetworks/collections/XL8LCQYW/items/RCK9BNB6/collection"/>
     <hyperlink ref="J21" r:id="rId37" display="http://oasis.col.org/handle/11599/3193"/>
     <hyperlink ref="K21" r:id="rId38" display="https://www.zotero.org/wakoma/search/setting%20up/titleCreatorYear/items/HC4QY5KG/item-list"/>
-    <hyperlink ref="J27" r:id="rId39" display="https://www.youtube.com/watch?v=ijjYmOYZzWk"/>
-    <hyperlink ref="J28" r:id="rId40" display="https://www.youtube.com/watch?v=E12ZOzJwze8"/>
-    <hyperlink ref="D29" r:id="rId41" display="https://manypossibilities.net"/>
-    <hyperlink ref="J29" r:id="rId42" display="https://manypossibilities.net"/>
-    <hyperlink ref="J30" r:id="rId43" display="https://communitynetworks.group/"/>
-    <hyperlink ref="J31" r:id="rId44" display="https://policy.communitynetworks.group/start"/>
-    <hyperlink ref="J32" r:id="rId45" display="https://selfhosted.libhunt.com/"/>
-    <hyperlink ref="J33" r:id="rId46" display="https://github.com/awesome-selfhosted/awesome-selfhosted"/>
-    <hyperlink ref="J34" r:id="rId47" location="metadata_info_tab_contents" display="https://www.jstor.org/stable/10.5325/jinfopoli.8.2018.0232#metadata_info_tab_contents"/>
-    <hyperlink ref="K35" r:id="rId48" display="https://www.zotero.org/groups/2403673/communitynetworks/collections/XL8LCQYW/items/WJ7BBQ6S/collection"/>
-    <hyperlink ref="J36" r:id="rId49" display="https://ieeexplore.ieee.org/document/8320771"/>
-    <hyperlink ref="K36" r:id="rId50" display="https://www.zotero.org/groups/2403673/communitynetworks/collections/XL8LCQYW/items/HNWRGEB9/collection"/>
-    <hyperlink ref="J38" r:id="rId51" display="https://dl.acm.org/doi/10.1145/2940157.2940163"/>
-    <hyperlink ref="D39" r:id="rId52" display="GenderIT.org"/>
-    <hyperlink ref="J39" r:id="rId53" display="https://www.genderit.org/"/>
-    <hyperlink ref="J40" r:id="rId54" display="https://www.nycmesh.net/blog/how/"/>
-    <hyperlink ref="J41" r:id="rId55" display="https://iopn.library.illinois.edu/pressbooks/demystifyingtechnology/chapter/mthe-infrastructure-of-the-internet/"/>
-    <hyperlink ref="J42" r:id="rId56" display="https://muninetworks.org/"/>
-    <hyperlink ref="D44" r:id="rId57" display="https://dl.acm.org/doi/10.1145/2998581.2998584"/>
-    <hyperlink ref="D45" r:id="rId58" display="https://www.weforum.org/agenda/2018/11/understanding-the-gender-gap-in-the-global-south/"/>
-    <hyperlink ref="D46" r:id="rId59" display="https://onlinelibrary.wiley.com/doi/10.1002/isd2.12029"/>
-    <hyperlink ref="D48" r:id="rId60" display="https://www.genderit.org/feminist-talk/our-routes-womens-node-illustrated-journey-women-community-networks"/>
-    <hyperlink ref="D49" r:id="rId61" display="https://www.rhizomatica.org/keeping-it-analog-a-framework-for-opting-out-of-connectivity/"/>
+    <hyperlink ref="J22" r:id="rId39" display="https://selfhosted.libhunt.com/"/>
+    <hyperlink ref="J23" r:id="rId40" display="https://ieeexplore.ieee.org/document/8320771"/>
+    <hyperlink ref="K23" r:id="rId41" display="https://www.zotero.org/groups/2403673/communitynetworks/collections/XL8LCQYW/items/HNWRGEB9/collection"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3416,9 +2626,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.42"/>
@@ -3427,9 +2637,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="67.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.86"/>
@@ -3437,7 +2647,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="38.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.7"/>
@@ -3454,7 +2664,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
@@ -3470,7 +2680,7 @@
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2" t="s">
@@ -3487,7 +2697,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="1" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="1" t="s">
@@ -3495,7 +2705,7 @@
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2" t="s">
@@ -3503,7 +2713,7 @@
       </c>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="AC1" s="2"/>
       <c r="AD1" s="1" t="s">
@@ -3522,7 +2732,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3535,7 +2745,7 @@
         <v>31</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>26</v>
@@ -3544,19 +2754,19 @@
         <v>27</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="Z2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>22</v>
@@ -3580,28 +2790,28 @@
         <v>47</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>93</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>1</v>
@@ -3612,7 +2822,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3625,30 +2835,30 @@
         <v>111</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3658,25 +2868,25 @@
         <v>2018</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,22 +2901,22 @@
         <v>2017</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,24 +2931,24 @@
         <v>2016</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3748,19 +2958,19 @@
         <v>2015</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,16 +2985,16 @@
         <v>2014</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3799,16 +3009,16 @@
         <v>2013</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3850,7 +3060,7 @@
         <v>2009</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,7 +3072,7 @@
         <v>2008</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,7 +3084,7 @@
         <v>2007</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,7 +3096,7 @@
         <v>2006</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,7 +3108,7 @@
         <v>2005</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,7 +3120,7 @@
         <v>2004</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3922,7 +3132,7 @@
         <v>2003</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3934,7 +3144,7 @@
         <v>2002</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,7 +3156,7 @@
         <v>2001</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,12 +3168,12 @@
         <v>2000</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T24" s="5" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,27 +3183,27 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T26" s="5" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T27" s="5" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T28" s="5" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S31" s="5" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T32" s="5" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,17 +3213,17 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S37" s="5" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T38" s="5" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T39" s="5" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4023,12 +3233,12 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T41" s="5" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T42" s="5" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
